--- a/biology/Botanique/Grateloupia_turuturu/Grateloupia_turuturu.xlsx
+++ b/biology/Botanique/Grateloupia_turuturu/Grateloupia_turuturu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grateloupe ou  Grateloupia turuturu est une espèce d'algues rouges de la famille des Halymeniaceae. Cette espèce originaire du Japon a été introduite accidentellement en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grateloupe ou  Grateloupia turuturu est une espèce d'algues rouges de la famille des Halymeniaceae. Cette espèce originaire du Japon a été introduite accidentellement en Europe.
 </t>
         </is>
       </c>
@@ -513,9 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Espèce introduite
-Cette algue été introduite accidentellement au début des années 1970 avec des naissains d’huîtres importés du Japon. Elle s'est répandue des Pays-Bas jusqu'au Portugal. Elle est présente depuis 1982 dans l'étang de Thau[1].
+          <t>Espèce introduite</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue été introduite accidentellement au début des années 1970 avec des naissains d’huîtres importés du Japon. Elle s'est répandue des Pays-Bas jusqu'au Portugal. Elle est présente depuis 1982 dans l'étang de Thau.
 </t>
         </is>
       </c>
@@ -544,10 +560,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grateloupe colonise la partie supérieure de la zone intertidale, elle se fixe sur le substrat rocheux. Elle est très résistante aux variations de température et de salinité[1].
-Une étude réalisée en 2006 en Bretagne, n'a pas mis en évidence que la Grateloupe était responsable de la disparition d'espèces locales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grateloupe colonise la partie supérieure de la zone intertidale, elle se fixe sur le substrat rocheux. Elle est très résistante aux variations de température et de salinité.
+Une étude réalisée en 2006 en Bretagne, n'a pas mis en évidence que la Grateloupe était responsable de la disparition d'espèces locales.
 </t>
         </is>
       </c>
